--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>5-301 1.2.3.4</t>
-  </si>
-  <si>
-    <t>6e-51-12-5c-7a-8c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>8-101</t>
+  </si>
+  <si>
+    <t>192.168.58.11</t>
+  </si>
+  <si>
+    <t>8-102</t>
+  </si>
+  <si>
+    <t>192.168.58.12</t>
+  </si>
+  <si>
+    <t>8-103</t>
+  </si>
+  <si>
+    <t>8-201</t>
+  </si>
+  <si>
+    <t>192.168.58.21</t>
+  </si>
+  <si>
+    <t>8-202</t>
+  </si>
+  <si>
+    <t>192.168.58.22</t>
+  </si>
+  <si>
+    <t>8-203</t>
+  </si>
+  <si>
+    <t>192.168.58.23</t>
+  </si>
+  <si>
+    <t>8-301</t>
+  </si>
+  <si>
+    <t>192.168.58.31</t>
+  </si>
+  <si>
+    <t>8-302</t>
+  </si>
+  <si>
+    <t>192.168.58.32</t>
+  </si>
+  <si>
+    <t>8-303</t>
+  </si>
+  <si>
+    <t>192.168.58.33</t>
+  </si>
+  <si>
+    <t>8-304</t>
+  </si>
+  <si>
+    <t>192.168.58.34</t>
+  </si>
+  <si>
+    <t>8-401</t>
+  </si>
+  <si>
+    <t>192.168.58.41</t>
+  </si>
+  <si>
+    <t>8-402</t>
+  </si>
+  <si>
+    <t>192.168.58.42</t>
+  </si>
+  <si>
+    <t>8-403</t>
+  </si>
+  <si>
+    <t>192.168.58.43</t>
+  </si>
+  <si>
+    <t>8-404</t>
+  </si>
+  <si>
+    <t>192.168.58.44</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1042,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -986,13 +1061,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1000,6 +1079,110 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
